--- a/Listado Mejoras.xlsx
+++ b/Listado Mejoras.xlsx
@@ -704,8 +704,8 @@
   <dimension ref="A1:BA262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5475,14 +5475,14 @@
     <row r="33" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
         <f t="shared" ref="A33" si="44">"lista.add(new Mejora("&amp;C33&amp;B33&amp;D33&amp;B33&amp;"));"</f>
-        <v>lista.add(new Mejora(32,1,0,0,0,0,0,0,0,0,4,0,0,0,0,0,0,0,0,0,0,0,0,"Muy Pequeño"));</v>
+        <v>lista.add(new Mejora(32,1,0,0,0,0,0,0,0,0,3,0,0,0,0,0,0,0,0,0,0,0,0,"Muy Pequeño"));</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ref="C33" si="45">AE33&amp;","&amp;AF33&amp;","&amp;AG33&amp;","&amp;AH33&amp;","&amp;AI33&amp;","&amp;AJ33&amp;","&amp;AK33&amp;","&amp;AL33&amp;","&amp;AM33&amp;","&amp;AN33&amp;","&amp;AO33&amp;","&amp;AP33&amp;","&amp;AQ33&amp;","&amp;AR33&amp;","&amp;AS33&amp;","&amp;AT33&amp;","&amp;AU33&amp;","&amp;AV33&amp;","&amp;AW33&amp;","&amp;AX33&amp;","&amp;AY33&amp;","&amp;AZ33&amp;","&amp;BA33&amp;","</f>
-        <v>32,1,0,0,0,0,0,0,0,0,4,0,0,0,0,0,0,0,0,0,0,0,0,</v>
+        <v>32,1,0,0,0,0,0,0,0,0,3,0,0,0,0,0,0,0,0,0,0,0,0,</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -5507,7 +5507,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -5567,7 +5567,7 @@
       </c>
       <c r="AO33">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP33">
         <f t="shared" si="17"/>
@@ -9899,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="AC63" t="str">
-        <f t="shared" ref="AC62:AC72" si="60">D63</f>
+        <f t="shared" ref="AC63:AC72" si="60">D63</f>
         <v>Pico Pescador</v>
       </c>
       <c r="AE63">
